--- a/plan/plan_timeline.xlsx
+++ b/plan/plan_timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geektechlab\git\pushed_filtered\LKP\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C31ED20-AE72-4686-BFEE-4236FA789C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAA199D-D8C6-4840-BA16-F97E93D4343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95CB87C6-CFAF-4904-8E3A-4B312F64F7D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>6 8</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>CQ note rev</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>11, 15, 16 Youtube playlist</t>
+  </si>
+  <si>
+    <t>How to use typedef in function pointers and structs, pointer etc.</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,30 +596,75 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,62 +680,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5189907D-D05C-43D5-BBDE-0E9DAF5BBD67}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,10 +1041,10 @@
       <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="45"/>
+      <c r="G1" s="55"/>
       <c r="J1" s="4" t="s">
         <v>76</v>
       </c>
@@ -1050,17 +1056,17 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="53" t="s">
         <v>53</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1080,15 +1086,15 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1107,14 +1113,14 @@
         <v>56</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="38"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="24" t="s">
         <v>13</v>
       </c>
@@ -1129,25 +1135,25 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="56" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9" t="s">
         <v>14</v>
@@ -1163,15 +1169,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9" t="s">
         <v>15</v>
@@ -1187,15 +1193,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="23"/>
       <c r="I7" s="9" t="s">
         <v>16</v>
@@ -1215,13 +1221,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="8"/>
       <c r="I8" s="10" t="s">
         <v>18</v>
@@ -1243,19 +1249,19 @@
       <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="32" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="57"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="s">
         <v>19</v>
@@ -1277,13 +1283,13 @@
       <c r="B10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
         <v>20</v>
@@ -1300,12 +1306,12 @@
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="8"/>
       <c r="I11" s="11" t="s">
         <v>21</v>
@@ -1324,14 +1330,14 @@
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="8"/>
       <c r="I12" s="11" t="s">
         <v>22</v>
@@ -1367,10 +1373,10 @@
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -1385,8 +1391,8 @@
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="14" t="s">
         <v>25</v>
       </c>
@@ -1415,15 +1421,15 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47" t="s">
         <v>66</v>
       </c>
       <c r="H17" s="43"/>
@@ -1438,11 +1444,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
       <c r="H18" s="43"/>
       <c r="I18" s="13" t="s">
         <v>29</v>
@@ -1455,15 +1461,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
+      <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="27" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="8"/>
@@ -1478,18 +1484,18 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
+      <c r="A20" s="26">
         <v>3</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="52" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="29" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="15" t="s">
@@ -1504,7 +1510,7 @@
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="16" t="s">
         <v>26</v>
       </c>
@@ -1517,7 +1523,7 @@
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="14" t="s">
         <v>30</v>
       </c>
@@ -1550,6 +1556,21 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1560,27 +1581,27 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="B17:D18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="F2:G3"/>
     <mergeCell ref="F5:G7"/>
     <mergeCell ref="F9:G10"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C4:G4"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>